--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="119">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">duracao_segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historico_id</t>
   </si>
   <si>
     <t xml:space="preserve">usuario_id</t>
@@ -385,7 +388,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -423,12 +426,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -505,7 +502,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -561,7 +558,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,7 +566,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -675,7 +672,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_3" displayName="Table_3" ref="P14:Q24" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_3" displayName="Table_3" ref="R14:S24" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="usuario_id"/>
     <tableColumn id="2" name="artista_id"/>
@@ -691,7 +688,7 @@
   <dimension ref="A1:Y999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -700,7 +697,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.51"/>
@@ -708,15 +705,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="18" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +750,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="59.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -792,7 +790,7 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="47.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
@@ -832,7 +830,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="47.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
@@ -872,7 +870,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="47.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
@@ -912,7 +910,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="47.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
@@ -952,7 +950,7 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="47.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
@@ -986,7 +984,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="47.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
@@ -1020,7 +1018,7 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="47.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
@@ -1054,7 +1052,7 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="47.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
@@ -1088,7 +1086,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="47.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
@@ -1167,13 +1165,12 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3" t="s">
+      <c r="O13" s="3"/>
+      <c r="Q13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
       <c r="T13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1206,23 +1203,26 @@
         <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="N14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="7" t="s">
+      <c r="S14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
       <c r="T14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1230,19 +1230,19 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>200</v>
@@ -1251,27 +1251,30 @@
         <v>1</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="17" t="n">
+      <c r="M15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="17" t="n">
         <v>43889.4485532407</v>
       </c>
-      <c r="N15" s="16" t="n">
+      <c r="O15" s="16" t="n">
         <v>36</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="11" t="n">
+      <c r="Q15" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" s="16" t="s">
+      <c r="R15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
       <c r="T15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1279,19 +1282,19 @@
         <v>2</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" s="9" t="n">
         <v>2</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="9" t="n">
         <v>163</v>
@@ -1301,45 +1304,48 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="19" t="n">
+      <c r="M16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="19" t="n">
         <v>43953.2295717593</v>
       </c>
-      <c r="N16" s="9" t="n">
+      <c r="O16" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="12" t="n">
+      <c r="Q16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="S16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>3</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>116</v>
@@ -1349,45 +1355,48 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="17" t="n">
+      <c r="M17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="17" t="n">
         <v>43896.4739930556</v>
       </c>
-      <c r="N17" s="16" t="n">
+      <c r="O17" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="11" t="n">
+      <c r="Q17" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" s="16" t="s">
+      <c r="S17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
         <v>4</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="9" t="n">
         <v>4</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H18" s="9" t="n">
         <v>203</v>
@@ -1397,45 +1406,48 @@
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" s="19" t="n">
+      <c r="M18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="19" t="n">
         <v>44048.3370023148</v>
       </c>
-      <c r="N18" s="9" t="n">
+      <c r="O18" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="12" t="n">
+      <c r="Q18" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="Q18" s="18" t="s">
+      <c r="S18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>152</v>
@@ -1445,45 +1457,48 @@
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" s="17" t="n">
+      <c r="M19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="17" t="n">
         <v>44088.6891435185</v>
       </c>
-      <c r="N19" s="16" t="n">
+      <c r="O19" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="11" t="n">
+      <c r="Q19" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="Q19" s="16" t="s">
+      <c r="S19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="9" t="n">
         <v>6</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" s="9" t="n">
         <v>105</v>
@@ -1493,45 +1508,48 @@
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="19" t="n">
+      <c r="M20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="19" t="n">
         <v>43832.3198263889</v>
       </c>
-      <c r="N20" s="9" t="n">
+      <c r="O20" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="12" t="n">
+      <c r="Q20" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="Q20" s="18" t="s">
+      <c r="S20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>7</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>207</v>
@@ -1541,45 +1559,48 @@
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M21" s="17" t="n">
+      <c r="M21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="17" t="n">
         <v>43967.2613657407</v>
       </c>
-      <c r="N21" s="16" t="n">
+      <c r="O21" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="11" t="n">
+      <c r="Q21" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="R21" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" s="16" t="s">
+      <c r="S21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
         <v>8</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" s="9" t="n">
         <v>8</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" s="9" t="n">
         <v>139</v>
@@ -1589,45 +1610,48 @@
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L22" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M22" s="19" t="n">
+      <c r="M22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="19" t="n">
         <v>44113.5193055556</v>
       </c>
-      <c r="N22" s="9" t="n">
+      <c r="O22" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="12" t="n">
+      <c r="Q22" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="R22" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="Q22" s="18" t="s">
+      <c r="S22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="4" t="n">
         <v>9</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" s="4" t="n">
         <v>244</v>
@@ -1637,45 +1661,48 @@
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="L23" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="L23" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="17" t="n">
+      <c r="M23" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="17" t="n">
         <v>44095.5519212963</v>
       </c>
-      <c r="N23" s="16" t="n">
+      <c r="O23" s="16" t="n">
         <v>39</v>
       </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="11" t="n">
+      <c r="Q23" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R23" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="Q23" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
+      <c r="S23" s="16" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
         <v>10</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" s="9" t="n">
         <v>10</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" s="9" t="n">
         <v>100</v>
@@ -1685,26 +1712,29 @@
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L24" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M24" s="19" t="n">
+      <c r="M24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="19" t="n">
         <v>44148.7050115741</v>
       </c>
-      <c r="N24" s="9" t="n">
+      <c r="O24" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="12" t="n">
+      <c r="Q24" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="R24" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="Q24" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
+      <c r="S24" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
@@ -1721,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" s="4" t="n">
         <v>146</v>
@@ -1731,26 +1761,29 @@
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="L25" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="L25" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="17" t="n">
+      <c r="M25" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="17" t="n">
         <v>44170.7767361111</v>
       </c>
-      <c r="N25" s="16" t="n">
+      <c r="O25" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="11" t="n">
+      <c r="Q25" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="R25" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="Q25" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
+      <c r="S25" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
@@ -1759,7 +1792,7 @@
     </row>
     <row r="26" customFormat="false" ht="22.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="6"/>
@@ -1767,7 +1800,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="9" t="n">
         <v>223</v>
@@ -1777,26 +1810,29 @@
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="L26" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="L26" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="M26" s="19" t="n">
+      <c r="M26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" s="19" t="n">
         <v>44042.4166666667</v>
       </c>
-      <c r="N26" s="9" t="n">
+      <c r="O26" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="O26" s="8"/>
-      <c r="P26" s="12" t="n">
+      <c r="Q26" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="R26" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="Q26" s="18" t="s">
+      <c r="S26" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
@@ -1808,14 +1844,14 @@
         <v>42</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="6"/>
       <c r="F27" s="4" t="n">
         <v>13</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H27" s="4" t="n">
         <v>231</v>
@@ -1825,26 +1861,29 @@
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="L27" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="L27" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="17" t="n">
+      <c r="M27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="17" t="n">
         <v>44423.7153935185</v>
       </c>
-      <c r="N27" s="16" t="n">
+      <c r="O27" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="11" t="n">
+      <c r="Q27" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="R27" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="Q27" s="16" t="s">
+      <c r="S27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -1856,14 +1895,14 @@
         <v>1</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" s="6"/>
       <c r="F28" s="9" t="n">
         <v>14</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H28" s="9" t="n">
         <v>241</v>
@@ -1873,26 +1912,29 @@
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L28" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M28" s="19" t="n">
+      <c r="M28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" s="19" t="n">
         <v>44387.6392361111</v>
       </c>
-      <c r="N28" s="9" t="n">
+      <c r="O28" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="O28" s="8"/>
-      <c r="P28" s="12" t="n">
+      <c r="Q28" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="R28" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="S28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
@@ -1904,14 +1946,14 @@
         <v>2</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="6"/>
       <c r="F29" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H29" s="4" t="n">
         <v>132</v>
@@ -1921,26 +1963,29 @@
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="L29" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="L29" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M29" s="17" t="n">
+      <c r="M29" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" s="17" t="n">
         <v>44205.0726041667</v>
       </c>
-      <c r="N29" s="16" t="n">
+      <c r="O29" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="O29" s="8"/>
-      <c r="P29" s="11" t="n">
+      <c r="Q29" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="R29" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="Q29" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
+      <c r="S29" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
@@ -1952,14 +1997,14 @@
         <v>3</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" s="6"/>
       <c r="F30" s="9" t="n">
         <v>16</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H30" s="9" t="n">
         <v>240</v>
@@ -1969,26 +2014,29 @@
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="L30" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="M30" s="19" t="n">
+      <c r="M30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" s="19" t="n">
         <v>44015.8149074074</v>
       </c>
-      <c r="N30" s="9" t="n">
+      <c r="O30" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="O30" s="8"/>
-      <c r="P30" s="12" t="n">
+      <c r="Q30" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="R30" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="S30" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
@@ -2000,14 +2048,14 @@
         <v>4</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" s="6"/>
       <c r="F31" s="4" t="n">
         <v>17</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H31" s="4" t="n">
         <v>185</v>
@@ -2017,26 +2065,29 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="L31" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="L31" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="M31" s="17" t="n">
+      <c r="M31" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N31" s="17" t="n">
         <v>42790.8849768519</v>
       </c>
-      <c r="N31" s="16" t="n">
+      <c r="O31" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="O31" s="8"/>
-      <c r="P31" s="11" t="n">
+      <c r="Q31" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="R31" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="Q31" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
+      <c r="S31" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -2048,14 +2099,14 @@
         <v>5</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32" s="6"/>
       <c r="F32" s="9" t="n">
         <v>18</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H32" s="9" t="n">
         <v>176</v>
@@ -2065,26 +2116,29 @@
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L32" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M32" s="19" t="n">
+      <c r="M32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="19" t="n">
         <v>44049.6414699074</v>
       </c>
-      <c r="N32" s="9" t="n">
+      <c r="O32" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="O32" s="8"/>
-      <c r="P32" s="12" t="n">
+      <c r="Q32" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="R32" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="Q32" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
+      <c r="S32" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
@@ -2096,14 +2150,14 @@
         <v>6</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C33" s="8"/>
       <c r="F33" s="4" t="n">
         <v>19</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H33" s="4" t="n">
         <v>190</v>
@@ -2113,26 +2167,29 @@
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="L33" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="L33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M33" s="17" t="n">
+      <c r="M33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="17" t="n">
         <v>44145.5780902778</v>
       </c>
-      <c r="N33" s="16" t="n">
+      <c r="O33" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="O33" s="8"/>
-      <c r="P33" s="11" t="n">
+      <c r="Q33" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="R33" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="Q33" s="16" t="s">
+      <c r="S33" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
@@ -2147,7 +2204,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H34" s="9" t="n">
         <v>222</v>
@@ -2157,26 +2214,29 @@
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L34" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="L34" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M34" s="19" t="n">
+      <c r="M34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N34" s="19" t="n">
         <v>43503.8568055556</v>
       </c>
-      <c r="N34" s="9" t="n">
+      <c r="O34" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="O34" s="8"/>
-      <c r="P34" s="12" t="n">
+      <c r="Q34" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="R34" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="Q34" s="18" t="s">
+      <c r="S34" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -2189,7 +2249,7 @@
         <v>21</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" s="4" t="n">
         <v>111</v>
@@ -2199,26 +2259,29 @@
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="L35" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="L35" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="M35" s="17" t="n">
+      <c r="M35" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="N35" s="17" t="n">
         <v>42759.021724537</v>
       </c>
-      <c r="N35" s="16" t="n">
+      <c r="O35" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="O35" s="8"/>
-      <c r="P35" s="11" t="n">
+      <c r="Q35" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="R35" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="Q35" s="16" t="s">
+      <c r="S35" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -2231,7 +2294,7 @@
         <v>22</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H36" s="9" t="n">
         <v>123</v>
@@ -2241,26 +2304,29 @@
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L36" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="L36" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M36" s="19" t="n">
+      <c r="M36" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N36" s="19" t="n">
         <v>43020.524537037</v>
       </c>
-      <c r="N36" s="9" t="n">
+      <c r="O36" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="O36" s="8"/>
-      <c r="P36" s="12" t="n">
+      <c r="Q36" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="R36" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="Q36" s="18" t="n">
+      <c r="S36" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
@@ -2275,7 +2341,7 @@
         <v>23</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H37" s="4" t="n">
         <v>197</v>
@@ -2285,18 +2351,20 @@
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="L37" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="L37" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="M37" s="17" t="n">
+      <c r="M37" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="N37" s="17" t="n">
         <v>43249.6226967593</v>
       </c>
-      <c r="N37" s="16" t="n">
+      <c r="O37" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="O37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
       <c r="U37" s="8"/>
@@ -2313,7 +2381,7 @@
         <v>24</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" s="9" t="n">
         <v>179</v>
@@ -2323,18 +2391,20 @@
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="L38" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="L38" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M38" s="19" t="n">
+      <c r="M38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N38" s="19" t="n">
         <v>43229.9380671296</v>
       </c>
-      <c r="N38" s="9" t="n">
+      <c r="O38" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="O38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="U38" s="8"/>
@@ -2351,7 +2421,7 @@
         <v>25</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>229</v>
@@ -2361,18 +2431,20 @@
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="L39" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="L39" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M39" s="17" t="n">
+      <c r="M39" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="17" t="n">
         <v>44039.5367824074</v>
       </c>
-      <c r="N39" s="16" t="n">
+      <c r="O39" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
@@ -2391,7 +2463,7 @@
         <v>26</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40" s="9" t="n">
         <v>135</v>
@@ -2401,18 +2473,20 @@
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="L40" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="L40" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M40" s="19" t="n">
+      <c r="M40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N40" s="19" t="n">
         <v>43116.778275463</v>
       </c>
-      <c r="N40" s="9" t="n">
+      <c r="O40" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
@@ -2431,7 +2505,7 @@
         <v>27</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H41" s="4" t="n">
         <v>150</v>
@@ -2441,18 +2515,20 @@
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="L41" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="L41" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M41" s="17" t="n">
+      <c r="M41" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N41" s="17" t="n">
         <v>43180.7060185185</v>
       </c>
-      <c r="N41" s="16" t="n">
+      <c r="O41" s="16" t="n">
         <v>39</v>
       </c>
-      <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
@@ -2471,7 +2547,7 @@
         <v>28</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H42" s="9" t="n">
         <v>166</v>
@@ -2481,18 +2557,20 @@
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="L42" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="L42" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M42" s="19" t="n">
+      <c r="M42" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N42" s="19" t="n">
         <v>44122.5681134259</v>
       </c>
-      <c r="N42" s="9" t="n">
+      <c r="O42" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
@@ -2511,7 +2589,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H43" s="4" t="n">
         <v>154</v>
@@ -2521,18 +2599,20 @@
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="L43" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="L43" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="M43" s="17" t="n">
+      <c r="M43" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="N43" s="17" t="n">
         <v>43610.3430902778</v>
       </c>
-      <c r="N43" s="16" t="n">
+      <c r="O43" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
@@ -2551,7 +2631,7 @@
         <v>30</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H44" s="9" t="n">
         <v>210</v>
@@ -2561,18 +2641,20 @@
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L44" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M44" s="19" t="n">
+      <c r="M44" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N44" s="19" t="n">
         <v>44423.9007986111</v>
       </c>
-      <c r="N44" s="9" t="n">
+      <c r="O44" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
@@ -2591,7 +2673,7 @@
         <v>31</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>117</v>
@@ -2601,18 +2683,20 @@
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="L45" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="L45" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="M45" s="17" t="n">
+      <c r="M45" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N45" s="17" t="n">
         <v>44340.7248263889</v>
       </c>
-      <c r="N45" s="16" t="n">
+      <c r="O45" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="O45" s="8"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
@@ -2631,7 +2715,7 @@
         <v>32</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H46" s="9" t="n">
         <v>159</v>
@@ -2641,18 +2725,20 @@
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="L46" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="L46" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M46" s="19" t="n">
+      <c r="M46" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N46" s="19" t="n">
         <v>43441.9506018519</v>
       </c>
-      <c r="N46" s="9" t="n">
+      <c r="O46" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="O46" s="8"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
@@ -2671,7 +2757,7 @@
         <v>33</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>138</v>
@@ -2681,18 +2767,20 @@
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="L47" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="L47" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M47" s="17" t="n">
+      <c r="M47" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="N47" s="17" t="n">
         <v>44269.2600231482</v>
       </c>
-      <c r="N47" s="16" t="n">
+      <c r="O47" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="O47" s="8"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
@@ -2711,7 +2799,7 @@
         <v>34</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H48" s="9" t="n">
         <v>120</v>
@@ -2721,18 +2809,20 @@
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="L48" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="L48" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M48" s="19" t="n">
+      <c r="M48" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N48" s="19" t="n">
         <v>43922.15</v>
       </c>
-      <c r="N48" s="9" t="n">
+      <c r="O48" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
@@ -2751,7 +2841,7 @@
         <v>35</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H49" s="4" t="n">
         <v>151</v>
@@ -2761,18 +2851,20 @@
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="L49" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="L49" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="M49" s="17" t="n">
+      <c r="M49" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N49" s="17" t="n">
         <v>42772.3483101852</v>
       </c>
-      <c r="N49" s="16" t="n">
+      <c r="O49" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
@@ -2791,7 +2883,7 @@
         <v>36</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H50" s="9" t="n">
         <v>79</v>
@@ -2801,18 +2893,20 @@
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="L50" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L50" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M50" s="19" t="n">
+      <c r="M50" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N50" s="19" t="n">
         <v>43073.2317476852</v>
       </c>
-      <c r="N50" s="9" t="n">
+      <c r="O50" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
@@ -2831,7 +2925,7 @@
         <v>37</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H51" s="4" t="n">
         <v>95</v>
@@ -2841,18 +2935,20 @@
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="16" t="n">
+        <v>37</v>
+      </c>
+      <c r="L51" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="L51" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="M51" s="17" t="n">
+      <c r="M51" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N51" s="17" t="n">
         <v>42943.2255671296</v>
       </c>
-      <c r="N51" s="16" t="n">
+      <c r="O51" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
@@ -2871,7 +2967,7 @@
         <v>38</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H52" s="9" t="n">
         <v>213</v>
@@ -2881,18 +2977,20 @@
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="L52" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L52" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M52" s="19" t="n">
+      <c r="M52" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N52" s="19" t="n">
         <v>43094.0444097222</v>
       </c>
-      <c r="N52" s="9" t="n">
+      <c r="O52" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="O52" s="8"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
@@ -2911,7 +3009,7 @@
         <v>39</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" s="4" t="n">
         <v>136</v>
@@ -2943,7 +3041,7 @@
         <v>40</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H54" s="9" t="n">
         <v>83</v>
@@ -2997,8 +3095,6 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -3021,8 +3117,6 @@
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -3045,8 +3139,6 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -3071,8 +3163,6 @@
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -3097,8 +3187,6 @@
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -3123,8 +3211,6 @@
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -3149,8 +3235,6 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -3175,8 +3259,6 @@
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -3201,8 +3283,6 @@
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -3227,8 +3307,6 @@
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -3253,8 +3331,6 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -3279,8 +3355,6 @@
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -3305,8 +3379,6 @@
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -3331,8 +3403,6 @@
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -3357,8 +3427,6 @@
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -3383,8 +3451,6 @@
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -3409,8 +3475,6 @@
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -3435,8 +3499,6 @@
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -3461,8 +3523,6 @@
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -3487,8 +3547,6 @@
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -3513,8 +3571,6 @@
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -3539,8 +3595,6 @@
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -3565,8 +3619,6 @@
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -3591,8 +3643,6 @@
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -3617,8 +3667,6 @@
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -3643,8 +3691,6 @@
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -3669,8 +3715,6 @@
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -3695,8 +3739,6 @@
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -3721,8 +3763,6 @@
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -3747,8 +3787,6 @@
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -3773,8 +3811,6 @@
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -3799,8 +3835,6 @@
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -3825,8 +3859,6 @@
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
@@ -3851,8 +3883,6 @@
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -3877,8 +3907,6 @@
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -3903,8 +3931,6 @@
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -3929,8 +3955,6 @@
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -3955,8 +3979,6 @@
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -3981,8 +4003,6 @@
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -4007,8 +4027,6 @@
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -8256,8 +8274,8 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="F13:I13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="Q13:S13"/>
     <mergeCell ref="A26:B26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -31,24 +31,24 @@
     <t xml:space="preserve">idade</t>
   </si>
   <si>
+    <t xml:space="preserve">data_assinatura</t>
+  </si>
+  <si>
     <t xml:space="preserve">plano_id</t>
   </si>
   <si>
-    <t xml:space="preserve">data_assinatura</t>
-  </si>
-  <si>
     <t xml:space="preserve">PLANO</t>
   </si>
   <si>
     <t xml:space="preserve">Thati</t>
   </si>
   <si>
+    <t xml:space="preserve">2019-10-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">2019-10-20</t>
-  </si>
-  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
@@ -58,36 +58,36 @@
     <t xml:space="preserve">Cintia</t>
   </si>
   <si>
+    <t xml:space="preserve">2017-12-30</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">2017-12-30</t>
-  </si>
-  <si>
     <t xml:space="preserve">gratuito</t>
   </si>
   <si>
     <t xml:space="preserve">Bill</t>
   </si>
   <si>
+    <t xml:space="preserve">2019-06-05</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">2019-06-05</t>
-  </si>
-  <si>
     <t xml:space="preserve">familiar</t>
   </si>
   <si>
     <t xml:space="preserve">Roger</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-05-13</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-13</t>
-  </si>
-  <si>
     <t xml:space="preserve">universitário</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t xml:space="preserve">album</t>
   </si>
   <si>
+    <t xml:space="preserve">ano_lancamento</t>
+  </si>
+  <si>
     <t xml:space="preserve">artista_id</t>
   </si>
   <si>
-    <t xml:space="preserve">ano_lancamento</t>
-  </si>
-  <si>
     <t xml:space="preserve">cancao_id</t>
   </si>
   <si>
@@ -247,10 +247,10 @@
     <t xml:space="preserve">Chained Down</t>
   </si>
   <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
     <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
   </si>
   <si>
     <t xml:space="preserve">Honey, So Do I</t>
@@ -652,8 +652,8 @@
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="usuario"/>
     <tableColumn id="3" name="idade"/>
-    <tableColumn id="4" name="plano_id"/>
-    <tableColumn id="5" name="data_assinatura"/>
+    <tableColumn id="4" name="data_assinatura"/>
+    <tableColumn id="5" name="plano_id"/>
   </tableColumns>
 </table>
 </file>
@@ -663,8 +663,8 @@
   <tableColumns count="6">
     <tableColumn id="1" name="album_id"/>
     <tableColumn id="2" name="album"/>
-    <tableColumn id="3" name="artista_id"/>
-    <tableColumn id="4" name="ano_lancamento"/>
+    <tableColumn id="3" name="ano_lancamento"/>
+    <tableColumn id="4" name="artista_id"/>
     <tableColumn id="5" name="Coluna5"/>
     <tableColumn id="6" name="cancao_id"/>
   </tableColumns>
@@ -687,8 +687,8 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J12" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -704,9 +704,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="14.28"/>
@@ -921,10 +921,10 @@
         <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="12" t="n">
@@ -961,10 +961,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6"/>
       <c r="J7" s="8"/>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6"/>
       <c r="J8" s="8"/>
@@ -1029,10 +1029,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F9" s="6"/>
       <c r="J9" s="8"/>
@@ -1063,10 +1063,10 @@
         <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6"/>
       <c r="J10" s="8"/>
@@ -1097,10 +1097,10 @@
         <v>46</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6"/>
       <c r="J11" s="8"/>
@@ -1180,10 +1180,10 @@
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1209,10 +1209,10 @@
         <v>45</v>
       </c>
       <c r="N14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>48</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T14" s="8"/>
     </row>
@@ -1232,11 +1232,11 @@
       <c r="B15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>1</v>
@@ -1255,16 +1255,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="17" t="n">
+      <c r="N15" s="16" t="n">
+        <v>36</v>
+      </c>
+      <c r="O15" s="17" t="n">
         <v>43889.4485532407</v>
-      </c>
-      <c r="O15" s="16" t="n">
-        <v>36</v>
       </c>
       <c r="Q15" s="11" t="n">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T15" s="8"/>
     </row>
@@ -1284,11 +1284,11 @@
       <c r="B16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>55</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="F16" s="9" t="n">
         <v>2</v>
@@ -1312,11 +1312,11 @@
       <c r="M16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="19" t="n">
+      <c r="N16" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O16" s="19" t="n">
         <v>43953.2295717593</v>
-      </c>
-      <c r="O16" s="9" t="n">
-        <v>25</v>
       </c>
       <c r="Q16" s="12" t="n">
         <v>2</v>
@@ -1325,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1335,11 +1335,11 @@
       <c r="B17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>59</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>3</v>
@@ -1363,11 +1363,11 @@
       <c r="M17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="17" t="n">
+      <c r="N17" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="O17" s="17" t="n">
         <v>43896.4739930556</v>
-      </c>
-      <c r="O17" s="16" t="n">
-        <v>23</v>
       </c>
       <c r="Q17" s="11" t="n">
         <v>3</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1386,11 +1386,11 @@
       <c r="B18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>63</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="F18" s="9" t="n">
         <v>4</v>
@@ -1414,11 +1414,11 @@
       <c r="M18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="19" t="n">
+      <c r="N18" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="O18" s="19" t="n">
         <v>44048.3370023148</v>
-      </c>
-      <c r="O18" s="9" t="n">
-        <v>14</v>
       </c>
       <c r="Q18" s="12" t="n">
         <v>4</v>
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1437,11 +1437,11 @@
       <c r="B19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>5</v>
@@ -1465,11 +1465,11 @@
       <c r="M19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="N19" s="17" t="n">
+      <c r="N19" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" s="17" t="n">
         <v>44088.6891435185</v>
-      </c>
-      <c r="O19" s="16" t="n">
-        <v>15</v>
       </c>
       <c r="Q19" s="11" t="n">
         <v>5</v>
@@ -1478,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1488,11 +1488,11 @@
       <c r="B20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>71</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="9" t="n">
         <v>6</v>
@@ -1516,11 +1516,11 @@
       <c r="M20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="N20" s="19" t="n">
+      <c r="N20" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="O20" s="19" t="n">
         <v>43832.3198263889</v>
-      </c>
-      <c r="O20" s="9" t="n">
-        <v>34</v>
       </c>
       <c r="Q20" s="12" t="n">
         <v>6</v>
@@ -1529,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1539,10 +1539,10 @@
       <c r="B21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F21" s="4" t="n">
@@ -1567,11 +1567,11 @@
       <c r="M21" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="N21" s="17" t="n">
+      <c r="N21" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="O21" s="17" t="n">
         <v>43967.2613657407</v>
-      </c>
-      <c r="O21" s="16" t="n">
-        <v>24</v>
       </c>
       <c r="Q21" s="11" t="n">
         <v>7</v>
@@ -1580,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1590,11 +1590,11 @@
       <c r="B22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>80</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="F22" s="9" t="n">
         <v>8</v>
@@ -1618,11 +1618,11 @@
       <c r="M22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="N22" s="19" t="n">
+      <c r="N22" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="O22" s="19" t="n">
         <v>44113.5193055556</v>
-      </c>
-      <c r="O22" s="9" t="n">
-        <v>21</v>
       </c>
       <c r="Q22" s="12" t="n">
         <v>8</v>
@@ -1631,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1641,11 +1641,11 @@
       <c r="B23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>84</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="F23" s="4" t="n">
         <v>9</v>
@@ -1669,11 +1669,11 @@
       <c r="M23" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="N23" s="17" t="n">
+      <c r="N23" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="O23" s="17" t="n">
         <v>44095.5519212963</v>
-      </c>
-      <c r="O23" s="16" t="n">
-        <v>39</v>
       </c>
       <c r="Q23" s="11" t="n">
         <v>9</v>
@@ -1682,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1692,11 +1692,11 @@
       <c r="B24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="F24" s="9" t="n">
         <v>10</v>
@@ -1720,11 +1720,11 @@
       <c r="M24" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="N24" s="19" t="n">
+      <c r="N24" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" s="19" t="n">
         <v>44148.7050115741</v>
-      </c>
-      <c r="O24" s="9" t="n">
-        <v>6</v>
       </c>
       <c r="Q24" s="12" t="n">
         <v>10</v>
@@ -1769,11 +1769,11 @@
       <c r="M25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="17" t="n">
+      <c r="N25" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" s="17" t="n">
         <v>44170.7767361111</v>
-      </c>
-      <c r="O25" s="16" t="n">
-        <v>3</v>
       </c>
       <c r="Q25" s="11" t="n">
         <v>11</v>
@@ -1818,11 +1818,11 @@
       <c r="M26" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="N26" s="19" t="n">
+      <c r="N26" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="O26" s="19" t="n">
         <v>44042.4166666667</v>
-      </c>
-      <c r="O26" s="9" t="n">
-        <v>26</v>
       </c>
       <c r="Q26" s="12" t="n">
         <v>12</v>
@@ -1831,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="27" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>94</v>
@@ -1869,11 +1869,11 @@
       <c r="M27" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N27" s="17" t="n">
+      <c r="N27" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" s="17" t="n">
         <v>44423.7153935185</v>
-      </c>
-      <c r="O27" s="16" t="n">
-        <v>2</v>
       </c>
       <c r="Q27" s="11" t="n">
         <v>13</v>
@@ -1882,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
@@ -1920,11 +1920,11 @@
       <c r="M28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N28" s="19" t="n">
+      <c r="N28" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="O28" s="19" t="n">
         <v>44387.6392361111</v>
-      </c>
-      <c r="O28" s="9" t="n">
-        <v>35</v>
       </c>
       <c r="Q28" s="12" t="n">
         <v>14</v>
@@ -1933,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="S28" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
@@ -1971,11 +1971,11 @@
       <c r="M29" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="N29" s="17" t="n">
+      <c r="N29" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="O29" s="17" t="n">
         <v>44205.0726041667</v>
-      </c>
-      <c r="O29" s="16" t="n">
-        <v>27</v>
       </c>
       <c r="Q29" s="11" t="n">
         <v>15</v>
@@ -1984,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
@@ -2022,11 +2022,11 @@
       <c r="M30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N30" s="19" t="n">
+      <c r="N30" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O30" s="19" t="n">
         <v>44015.8149074074</v>
-      </c>
-      <c r="O30" s="9" t="n">
-        <v>7</v>
       </c>
       <c r="Q30" s="12" t="n">
         <v>16</v>
@@ -2035,7 +2035,7 @@
         <v>8</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -2073,11 +2073,11 @@
       <c r="M31" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="N31" s="17" t="n">
+      <c r="N31" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="O31" s="17" t="n">
         <v>42790.8849768519</v>
-      </c>
-      <c r="O31" s="16" t="n">
-        <v>12</v>
       </c>
       <c r="Q31" s="11" t="n">
         <v>17</v>
@@ -2086,7 +2086,7 @@
         <v>8</v>
       </c>
       <c r="S31" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -2124,11 +2124,11 @@
       <c r="M32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N32" s="19" t="n">
+      <c r="N32" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="O32" s="19" t="n">
         <v>44049.6414699074</v>
-      </c>
-      <c r="O32" s="9" t="n">
-        <v>14</v>
       </c>
       <c r="Q32" s="12" t="n">
         <v>18</v>
@@ -2175,11 +2175,11 @@
       <c r="M33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="N33" s="17" t="n">
+      <c r="N33" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="17" t="n">
         <v>44145.5780902778</v>
-      </c>
-      <c r="O33" s="16" t="n">
-        <v>1</v>
       </c>
       <c r="Q33" s="11" t="n">
         <v>19</v>
@@ -2188,7 +2188,7 @@
         <v>9</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
@@ -2222,11 +2222,11 @@
       <c r="M34" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="N34" s="19" t="n">
+      <c r="N34" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="O34" s="19" t="n">
         <v>43503.8568055556</v>
-      </c>
-      <c r="O34" s="9" t="n">
-        <v>38</v>
       </c>
       <c r="Q34" s="12" t="n">
         <v>20</v>
@@ -2235,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="S34" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
@@ -2267,11 +2267,11 @@
       <c r="M35" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="N35" s="17" t="n">
+      <c r="N35" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="O35" s="17" t="n">
         <v>42759.021724537</v>
-      </c>
-      <c r="O35" s="16" t="n">
-        <v>29</v>
       </c>
       <c r="Q35" s="11" t="n">
         <v>21</v>
@@ -2280,7 +2280,7 @@
         <v>10</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
@@ -2312,11 +2312,11 @@
       <c r="M36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="19" t="n">
+      <c r="N36" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O36" s="19" t="n">
         <v>43020.524537037</v>
-      </c>
-      <c r="O36" s="9" t="n">
-        <v>30</v>
       </c>
       <c r="Q36" s="12" t="n">
         <v>22</v>
@@ -2359,11 +2359,11 @@
       <c r="M37" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="N37" s="17" t="n">
+      <c r="N37" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="O37" s="17" t="n">
         <v>43249.6226967593</v>
-      </c>
-      <c r="O37" s="16" t="n">
-        <v>22</v>
       </c>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
@@ -2399,11 +2399,11 @@
       <c r="M38" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N38" s="19" t="n">
+      <c r="N38" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O38" s="19" t="n">
         <v>43229.9380671296</v>
-      </c>
-      <c r="O38" s="9" t="n">
-        <v>5</v>
       </c>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
@@ -2439,11 +2439,11 @@
       <c r="M39" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="N39" s="17" t="n">
+      <c r="N39" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" s="17" t="n">
         <v>44039.5367824074</v>
-      </c>
-      <c r="O39" s="16" t="n">
-        <v>4</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
@@ -2481,11 +2481,11 @@
       <c r="M40" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="N40" s="19" t="n">
+      <c r="N40" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O40" s="19" t="n">
         <v>43116.778275463</v>
-      </c>
-      <c r="O40" s="9" t="n">
-        <v>11</v>
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
@@ -2523,11 +2523,11 @@
       <c r="M41" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="N41" s="17" t="n">
+      <c r="N41" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="O41" s="17" t="n">
         <v>43180.7060185185</v>
-      </c>
-      <c r="O41" s="16" t="n">
-        <v>39</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
@@ -2565,11 +2565,11 @@
       <c r="M42" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N42" s="19" t="n">
+      <c r="N42" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="O42" s="19" t="n">
         <v>44122.5681134259</v>
-      </c>
-      <c r="O42" s="9" t="n">
-        <v>40</v>
       </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
@@ -2607,11 +2607,11 @@
       <c r="M43" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="N43" s="17" t="n">
+      <c r="N43" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="O43" s="17" t="n">
         <v>43610.3430902778</v>
-      </c>
-      <c r="O43" s="16" t="n">
-        <v>32</v>
       </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
@@ -2649,11 +2649,11 @@
       <c r="M44" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="N44" s="19" t="n">
+      <c r="N44" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="O44" s="19" t="n">
         <v>44423.9007986111</v>
-      </c>
-      <c r="O44" s="9" t="n">
-        <v>33</v>
       </c>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
@@ -2691,11 +2691,11 @@
       <c r="M45" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="N45" s="17" t="n">
+      <c r="N45" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O45" s="17" t="n">
         <v>44340.7248263889</v>
-      </c>
-      <c r="O45" s="16" t="n">
-        <v>16</v>
       </c>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
@@ -2733,11 +2733,11 @@
       <c r="M46" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="N46" s="19" t="n">
+      <c r="N46" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O46" s="19" t="n">
         <v>43441.9506018519</v>
-      </c>
-      <c r="O46" s="9" t="n">
-        <v>17</v>
       </c>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
@@ -2775,11 +2775,11 @@
       <c r="M47" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="N47" s="17" t="n">
+      <c r="N47" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O47" s="17" t="n">
         <v>44269.2600231482</v>
-      </c>
-      <c r="O47" s="16" t="n">
-        <v>8</v>
       </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
@@ -2817,11 +2817,11 @@
       <c r="M48" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N48" s="19" t="n">
+      <c r="N48" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O48" s="19" t="n">
         <v>43922.15</v>
-      </c>
-      <c r="O48" s="9" t="n">
-        <v>9</v>
       </c>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
@@ -2859,11 +2859,11 @@
       <c r="M49" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N49" s="17" t="n">
+      <c r="N49" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="O49" s="17" t="n">
         <v>42772.3483101852</v>
-      </c>
-      <c r="O49" s="16" t="n">
-        <v>20</v>
       </c>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
@@ -2901,11 +2901,11 @@
       <c r="M50" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="N50" s="19" t="n">
+      <c r="N50" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="O50" s="19" t="n">
         <v>43073.2317476852</v>
-      </c>
-      <c r="O50" s="9" t="n">
-        <v>21</v>
       </c>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
@@ -2943,11 +2943,11 @@
       <c r="M51" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="N51" s="17" t="n">
+      <c r="N51" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="O51" s="17" t="n">
         <v>42943.2255671296</v>
-      </c>
-      <c r="O51" s="16" t="n">
-        <v>12</v>
       </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
@@ -2985,11 +2985,11 @@
       <c r="M52" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N52" s="19" t="n">
+      <c r="N52" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O52" s="19" t="n">
         <v>43094.0444097222</v>
-      </c>
-      <c r="O52" s="9" t="n">
-        <v>13</v>
       </c>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
